--- a/desafios/d014/tabela-medias-notas.xlsx
+++ b/desafios/d014/tabela-medias-notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\estudos\html-css\desafios\d014\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03EDF959-429A-4745-A241-0DC4229F8363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1172BE84-0B54-49CB-8B41-A7F0F60A01C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8334DE29-71A9-457D-AA29-29A27E5DF27C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Área</t>
   </si>
@@ -173,21 +173,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2115F80E-4E4B-481D-BF28-6BB0FCC842F5}">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,33 +516,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -559,7 +559,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -574,7 +574,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
@@ -589,7 +589,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -604,57 +604,69 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
